--- a/XAP_TOP_10/src/main/java/com/legacyTeam/testDataFile/TestData.xlsx
+++ b/XAP_TOP_10/src/main/java/com/legacyTeam/testDataFile/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2460" windowWidth="14790" windowHeight="6345"/>
+    <workbookView xWindow="0" yWindow="2460" windowWidth="14790" windowHeight="6345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -12,74 +12,59 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K19"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>RunMode</t>
   </si>
   <si>
-    <t>TC001_VerifyLoginWithInvalidCredentials</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>TC002_VerifyLoginWith_ValidCredentials</t>
-  </si>
-  <si>
     <t>TestCaseName</t>
   </si>
   <si>
-    <t>Browser</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t xml:space="preserve">Y </t>
   </si>
   <si>
-    <t>balvinder.dh23@gmail.com</t>
-  </si>
-  <si>
-    <t>Green@4521</t>
-  </si>
-  <si>
-    <t>Yello@4521</t>
-  </si>
-  <si>
-    <t>Blue@4521</t>
-  </si>
-  <si>
-    <t>Firefox</t>
-  </si>
-  <si>
-    <t>Chrome</t>
+    <t>YearNumber</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>MonthName</t>
+  </si>
+  <si>
+    <t>MonthNumber</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>LaunchBrowser</t>
+  </si>
+  <si>
+    <t>2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,13 +114,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -146,10 +129,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -477,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,27 +474,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -520,10 +496,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,118 +511,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
+      <c r="A1" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>12</v>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="C9" r:id="rId5"/>
-    <hyperlink ref="D9" r:id="rId6"/>
-    <hyperlink ref="C10" r:id="rId7"/>
-    <hyperlink ref="D10" r:id="rId8"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/XAP_TOP_10/src/main/java/com/legacyTeam/testDataFile/TestData.xlsx
+++ b/XAP_TOP_10/src/main/java/com/legacyTeam/testDataFile/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2460" windowWidth="14790" windowHeight="6345" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2460" windowWidth="11310" windowHeight="3165" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>RunMode</t>
   </si>
@@ -51,10 +51,37 @@
     <t>10</t>
   </si>
   <si>
-    <t>LaunchBrowser</t>
-  </si>
-  <si>
     <t>2017</t>
+  </si>
+  <si>
+    <t>GetAttendance</t>
+  </si>
+  <si>
+    <t>Add_ToDoList</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>TextArea</t>
+  </si>
+  <si>
+    <t>This text is need to be added in the list of XAP</t>
+  </si>
+  <si>
+    <t>This text is need to be added in the list of XAP 2</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>VerifyText</t>
+  </si>
+  <si>
+    <t>of XAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to be added in the list </t>
   </si>
 </sst>
 </file>
@@ -117,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -131,6 +158,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -483,9 +514,17 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -496,10 +535,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,14 +547,16 @@
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="61" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,12 +570,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -543,18 +584,83 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
